--- a/data/trans_orig/Q04C1_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q04C1_2023-Dificultad-trans_orig.xlsx
@@ -566,7 +566,7 @@
         <v>20.94800958655842</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19.75131219718019</v>
+        <v>19.7513121971802</v>
       </c>
     </row>
     <row r="5">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>16.54631027762736</v>
+        <v>16.63423462595769</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>19.34726067271909</v>
+        <v>19.51519541044502</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18.58081712056073</v>
+        <v>18.48988438650664</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>20.17314947801675</v>
+        <v>20.0975647151468</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>22.38312001213198</v>
+        <v>22.50196214989269</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20.91387753954902</v>
+        <v>20.85240462913336</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>19.83844983425168</v>
+        <v>19.95023425480651</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>22.06908682996952</v>
+        <v>22.04741294539105</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>21.31857992722306</v>
+        <v>21.31314730619801</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>22.63227927038363</v>
+        <v>22.67202662506169</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>24.36285162002687</v>
+        <v>24.40897729637582</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>23.12321686998591</v>
+        <v>23.11575423149678</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>18.44822496502736</v>
+        <v>18.39100122170636</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>20.35310534471223</v>
+        <v>20.52011837364662</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19.77026216321963</v>
+        <v>19.73561912311696</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>20.54413827894722</v>
+        <v>20.53696896817985</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>22.43711824272329</v>
+        <v>22.5448227981241</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21.20759138874184</v>
+        <v>21.21582929869038</v>
       </c>
     </row>
     <row r="13">
@@ -731,7 +731,7 @@
         <v>19.76537386933867</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18.97719587358573</v>
+        <v>18.97719587358572</v>
       </c>
     </row>
     <row r="14">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>16.89523181411609</v>
+        <v>16.94636194728444</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>18.58810968807073</v>
+        <v>18.59247506645169</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>18.07205902711636</v>
+        <v>18.16765442797378</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>19.59840202136428</v>
+        <v>19.55154002551874</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>20.9457579459389</v>
+        <v>20.90682693074483</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>19.89224222133443</v>
+        <v>19.91020487416451</v>
       </c>
     </row>
     <row r="16">
@@ -783,7 +783,7 @@
         <v>19.53493271093579</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>21.55004807804187</v>
+        <v>21.55004807804188</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>20.56575751953099</v>
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>18.85454327853595</v>
+        <v>18.80061244264013</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>20.9217349517154</v>
+        <v>21.0056700426403</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>20.08897248422508</v>
+        <v>20.12959983810066</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>20.24864305474573</v>
+        <v>20.21518710567603</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>22.16299761220579</v>
+        <v>22.23507221534354</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>21.05970903108106</v>
+        <v>21.00622761304197</v>
       </c>
     </row>
     <row r="19">
